--- a/public/pdf/mycv.xlsx
+++ b/public/pdf/mycv.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="177">
   <si>
     <t>履歴書</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve"> 月</t>
   </si>
   <si>
-    <t>7</t>
+    <t>25</t>
   </si>
   <si>
     <t>日</t>
@@ -330,9 +330,6 @@
       </rPr>
       <t>居 住 地</t>
     </r>
-  </si>
-  <si>
-    <t>東京都</t>
   </si>
   <si>
     <r>
@@ -1360,9 +1357,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="&quot;&quot;#&quot;歳&quot;"/>
@@ -1479,11 +1476,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="12"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <charset val="128"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1494,7 +1491,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1502,14 +1499,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="12"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1562,46 +1582,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1616,15 +1598,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <charset val="128"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1660,25 +1657,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,37 +1711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,13 +1735,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,7 +1783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,25 +1807,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,48 +1835,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="181">
     <border>
@@ -4041,6 +4038,84 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4053,54 +4128,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4111,36 +4138,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4164,132 +4161,132 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="174" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="175" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="175" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="176" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="176" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="177" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="176" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="174" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="173" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="178" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="173" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="179" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="180" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="175" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="177" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="179" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="180" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="179" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="173" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="178" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
@@ -5754,7 +5751,7 @@
   <dimension ref="A1:AS55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScalePageLayoutView="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7941,11 +7938,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC32:AE32">
+      <formula1>"[▼選択],正社員,役員,契約社員,派遣社員,嘱託・委託,アルバイト・パート,その他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="配偶者の有無" prompt="選択してください" sqref="V6:Y6">
       <formula1>$AI$8:$AI$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC32:AE32">
-      <formula1>"[▼選択],正社員,役員,契約社員,派遣社員,嘱託・委託,アルバイト・パート,その他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:K7">
       <formula1>$AI$5:$AI$7</formula1>
@@ -7967,8 +7964,8 @@
   </sheetPr>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.44166666666667" defaultRowHeight="19.5"/>
@@ -8062,12 +8059,12 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="116">
@@ -8086,18 +8083,18 @@
     </row>
     <row r="6" ht="21" customHeight="1" spans="2:19">
       <c r="B6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
       <c r="G6" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="118" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J6" s="119"/>
       <c r="K6" s="119"/>
@@ -8112,20 +8109,20 @@
     </row>
     <row r="7" ht="41.85" customHeight="1" spans="2:19">
       <c r="B7" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
       <c r="G7" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="121"/>
       <c r="K7" s="121"/>
@@ -8159,11 +8156,11 @@
     </row>
     <row r="9" ht="28.5" customHeight="1" spans="2:18">
       <c r="B9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -8182,11 +8179,11 @@
     </row>
     <row r="10" ht="28.5" customHeight="1" spans="2:18">
       <c r="B10" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -8205,11 +8202,11 @@
     </row>
     <row r="11" ht="28.5" customHeight="1" spans="2:18">
       <c r="B11" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
@@ -8247,31 +8244,31 @@
     </row>
     <row r="13" ht="19.35" customHeight="1" spans="2:18">
       <c r="B13" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="H13" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="I13" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="J13" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="K13" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="L13" s="122" t="s">
         <v>109</v>
-      </c>
-      <c r="L13" s="122" t="s">
-        <v>110</v>
       </c>
       <c r="M13" s="122"/>
       <c r="N13" s="122"/>
@@ -8292,25 +8289,25 @@
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
       <c r="L14" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="M14" s="123" t="s">
+      <c r="N14" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="123" t="s">
+      <c r="O14" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="O14" s="123" t="s">
+      <c r="P14" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="P14" s="123" t="s">
+      <c r="Q14" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="Q14" s="123" t="s">
+      <c r="R14" s="151" t="s">
         <v>116</v>
-      </c>
-      <c r="R14" s="151" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="23.25" customHeight="1" spans="1:23">
@@ -8319,43 +8316,43 @@
         <v>1</v>
       </c>
       <c r="C15" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="E15" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="F15" s="50" t="s">
         <v>120</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>121</v>
       </c>
       <c r="G15" s="51"/>
       <c r="H15" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="J15" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="124" t="s">
+      <c r="K15" s="52" t="s">
         <v>124</v>
-      </c>
-      <c r="K15" s="52" t="s">
-        <v>125</v>
       </c>
       <c r="L15" s="125"/>
       <c r="M15" s="125"/>
       <c r="N15" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O15" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P15" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q15" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R15" s="152"/>
       <c r="S15" s="46"/>
@@ -8371,10 +8368,10 @@
       <c r="D16" s="55"/>
       <c r="E16" s="56"/>
       <c r="F16" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="58" t="s">
         <v>127</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>128</v>
       </c>
       <c r="H16" s="59"/>
       <c r="I16" s="126"/>
@@ -8397,7 +8394,7 @@
       <c r="A17" s="46"/>
       <c r="B17" s="60"/>
       <c r="C17" s="61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="62"/>
       <c r="E17" s="63"/>
@@ -8426,41 +8423,41 @@
         <v>2</v>
       </c>
       <c r="C18" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>131</v>
-      </c>
       <c r="F18" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G18" s="70"/>
       <c r="H18" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="J18" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="J18" s="128" t="s">
-        <v>134</v>
-      </c>
       <c r="K18" s="71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="59"/>
       <c r="N18" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O18" s="59"/>
       <c r="P18" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R18" s="154"/>
       <c r="S18" s="46"/>
@@ -8476,10 +8473,10 @@
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="58" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="58" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
@@ -8502,7 +8499,7 @@
       <c r="A20" s="46"/>
       <c r="B20" s="60"/>
       <c r="C20" s="74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="75"/>
       <c r="E20" s="76"/>
@@ -8532,43 +8529,43 @@
         <v>3</v>
       </c>
       <c r="C21" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="81" t="s">
-        <v>139</v>
-      </c>
       <c r="F21" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G21" s="70"/>
       <c r="H21" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="I21" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="130" t="s">
-        <v>141</v>
-      </c>
       <c r="K21" s="82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L21" s="131"/>
       <c r="M21" s="131"/>
       <c r="N21" s="131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O21" s="131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P21" s="131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R21" s="157"/>
       <c r="S21" s="46"/>
@@ -8584,10 +8581,10 @@
       <c r="D22" s="55"/>
       <c r="E22" s="56"/>
       <c r="F22" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22" s="59"/>
       <c r="I22" s="126"/>
@@ -8610,7 +8607,7 @@
       <c r="A23" s="46"/>
       <c r="B23" s="60"/>
       <c r="C23" s="74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="84"/>
       <c r="E23" s="85"/>
@@ -8640,43 +8637,43 @@
         <v>4</v>
       </c>
       <c r="C24" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="81" t="s">
-        <v>145</v>
-      </c>
       <c r="F24" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="70"/>
       <c r="H24" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="I24" s="82" t="s">
+      <c r="J24" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="J24" s="130" t="s">
+      <c r="K24" s="82" t="s">
         <v>148</v>
-      </c>
-      <c r="K24" s="82" t="s">
-        <v>149</v>
       </c>
       <c r="L24" s="131"/>
       <c r="M24" s="131"/>
       <c r="N24" s="131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O24" s="131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P24" s="131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q24" s="131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R24" s="157"/>
       <c r="S24" s="46"/>
@@ -8692,10 +8689,10 @@
       <c r="D25" s="55"/>
       <c r="E25" s="56"/>
       <c r="F25" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="58" t="s">
         <v>150</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>151</v>
       </c>
       <c r="H25" s="59"/>
       <c r="I25" s="126"/>
@@ -8718,7 +8715,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="86"/>
       <c r="C26" s="87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="62"/>
       <c r="E26" s="63"/>
@@ -8748,34 +8745,34 @@
         <v>5</v>
       </c>
       <c r="C27" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="91" t="s">
-        <v>154</v>
-      </c>
       <c r="F27" s="92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G27" s="93"/>
       <c r="H27" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="I27" s="133" t="s">
+      <c r="J27" s="134" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="94" t="s">
         <v>156</v>
-      </c>
-      <c r="J27" s="134" t="s">
-        <v>148</v>
-      </c>
-      <c r="K27" s="94" t="s">
-        <v>157</v>
       </c>
       <c r="L27" s="135"/>
       <c r="M27" s="135"/>
       <c r="N27" s="135" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O27" s="135"/>
       <c r="P27" s="135"/>
@@ -8794,10 +8791,10 @@
       <c r="D28" s="55"/>
       <c r="E28" s="56"/>
       <c r="F28" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="58" t="s">
         <v>158</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>159</v>
       </c>
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
@@ -8820,7 +8817,7 @@
       <c r="A29" s="46"/>
       <c r="B29" s="96"/>
       <c r="C29" s="74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" s="84"/>
       <c r="E29" s="85"/>
@@ -8850,35 +8847,35 @@
         <v>6</v>
       </c>
       <c r="C30" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="81" t="s">
+      <c r="F30" s="69" t="s">
         <v>161</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>162</v>
       </c>
       <c r="G30" s="70"/>
       <c r="H30" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="I30" s="136" t="s">
-        <v>156</v>
-      </c>
       <c r="J30" s="130" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K30" s="82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L30" s="131"/>
       <c r="M30" s="131"/>
       <c r="N30" s="131"/>
       <c r="O30" s="81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P30" s="131"/>
       <c r="Q30" s="131"/>
@@ -8896,10 +8893,10 @@
       <c r="D31" s="55"/>
       <c r="E31" s="56"/>
       <c r="F31" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="58" t="s">
         <v>164</v>
-      </c>
-      <c r="G31" s="58" t="s">
-        <v>165</v>
       </c>
       <c r="H31" s="59"/>
       <c r="I31" s="59"/>
@@ -8922,7 +8919,7 @@
       <c r="A32" s="46"/>
       <c r="B32" s="96"/>
       <c r="C32" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" s="84"/>
       <c r="E32" s="85"/>
@@ -8952,35 +8949,35 @@
         <v>7</v>
       </c>
       <c r="C33" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="81" t="s">
+      <c r="F33" s="69" t="s">
         <v>167</v>
-      </c>
-      <c r="F33" s="69" t="s">
-        <v>168</v>
       </c>
       <c r="G33" s="98"/>
       <c r="H33" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" s="136" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="82" t="s">
         <v>169</v>
-      </c>
-      <c r="I33" s="136" t="s">
-        <v>156</v>
-      </c>
-      <c r="J33" s="130" t="s">
-        <v>148</v>
-      </c>
-      <c r="K33" s="82" t="s">
-        <v>170</v>
       </c>
       <c r="L33" s="131"/>
       <c r="M33" s="131"/>
       <c r="N33" s="131"/>
       <c r="O33" s="81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P33" s="131"/>
       <c r="Q33" s="131"/>
@@ -8998,10 +8995,10 @@
       <c r="D34" s="55"/>
       <c r="E34" s="56"/>
       <c r="F34" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="58" t="s">
         <v>171</v>
-      </c>
-      <c r="G34" s="58" t="s">
-        <v>172</v>
       </c>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -9024,7 +9021,7 @@
       <c r="A35" s="46"/>
       <c r="B35" s="95"/>
       <c r="C35" s="99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" s="100"/>
       <c r="E35" s="101"/>
@@ -9057,36 +9054,36 @@
         <v>43475</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="92" t="s">
         <v>173</v>
-      </c>
-      <c r="F36" s="92" t="s">
-        <v>174</v>
       </c>
       <c r="G36" s="104"/>
       <c r="H36" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="I36" s="133" t="s">
+      <c r="J36" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="K36" s="94" t="s">
         <v>156</v>
-      </c>
-      <c r="J36" s="94" t="s">
-        <v>175</v>
-      </c>
-      <c r="K36" s="94" t="s">
-        <v>157</v>
       </c>
       <c r="L36" s="135"/>
       <c r="M36" s="91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N36" s="91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O36" s="91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P36" s="135"/>
       <c r="Q36" s="135"/>
@@ -9094,7 +9091,7 @@
       <c r="S36" s="46"/>
       <c r="T36" s="153"/>
       <c r="U36" s="162" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V36" s="153"/>
       <c r="W36" s="153"/>
@@ -9106,10 +9103,10 @@
       <c r="D37" s="73"/>
       <c r="E37" s="73"/>
       <c r="F37" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="58" t="s">
         <v>176</v>
-      </c>
-      <c r="G37" s="58" t="s">
-        <v>177</v>
       </c>
       <c r="H37" s="71"/>
       <c r="I37" s="137"/>
@@ -9132,7 +9129,7 @@
       <c r="A38" s="46"/>
       <c r="B38" s="105"/>
       <c r="C38" s="106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" s="107"/>
       <c r="E38" s="108"/>
@@ -9340,18 +9337,18 @@
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="D4:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「お持ちの資格」 or 「無し」" prompt="をご記載ください。&#10;&#10;ない場合は「無し」とご記載ください。" sqref="D7:F7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L15:R38">
+      <formula1>"●"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I4:R4">
       <formula1>"男性,女性,　　　　"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="いつから稼働可能か" prompt="をご記載ください。&#10;&#10;(例)「即日～」&#10;&#10;　  「○月△日～」" sqref="D6:F6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「路線名　駅名」" prompt="をご記載ください。&#10;&#10;(例)○○線 △△駅" sqref="D5:F5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L15:R38">
-      <formula1>"●"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「お持ちの資格」 or 「無し」" prompt="をご記載ください。&#10;&#10;ない場合は「無し」とご記載ください。" sqref="D7:F7"/>
   </dataValidations>
   <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.984251968503937" bottom="0.984251968503937" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="26" max="17" man="1"/>

--- a/public/pdf/mycv.xlsx
+++ b/public/pdf/mycv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" tabRatio="559"/>
+    <workbookView windowWidth="28125" windowHeight="12495" tabRatio="559"/>
   </bookViews>
   <sheets>
     <sheet name="①履歴書" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="176">
   <si>
     <t>履歴書</t>
   </si>
@@ -37,13 +37,13 @@
     <t xml:space="preserve"> 年</t>
   </si>
   <si>
-    <t>6</t>
+    <t>10</t>
   </si>
   <si>
     <t xml:space="preserve"> 月</t>
   </si>
   <si>
-    <t>25</t>
+    <t>1</t>
   </si>
   <si>
     <t>日</t>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>年</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>月</t>
@@ -597,7 +594,7 @@
     <t>〜</t>
   </si>
   <si>
-    <t>2023年5月</t>
+    <t>2023年9月</t>
   </si>
   <si>
     <r>
@@ -725,7 +722,7 @@
 （本人含む）</t>
   </si>
   <si>
-    <t>5ヶ月</t>
+    <t>9ヶ月</t>
   </si>
   <si>
     <t>2022年10月</t>
@@ -1357,8 +1354,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -1477,14 +1474,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,13 +1494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1512,8 +1502,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1529,7 +1532,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="12"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1589,6 +1599,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1598,27 +1615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,13 +1654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,25 +1678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,7 +1702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,19 +1714,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,7 +1750,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,55 +1798,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,18 +1832,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="181">
     <border>
@@ -4052,6 +4049,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4065,45 +4112,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4127,23 +4135,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4161,132 +4158,132 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="175" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="176" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="177" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="176" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="178" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="175" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="173" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="176" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="177" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="179" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="173" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="180" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="174" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="176" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="174" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="173" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="178" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="173" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="179" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="180" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
@@ -5751,7 +5748,7 @@
   <dimension ref="A1:AS55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScalePageLayoutView="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ11" sqref="AZ11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5938,24 +5935,24 @@
         <v>19</v>
       </c>
       <c r="O6" s="244" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="243" t="s">
+      <c r="Q6" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="244" t="s">
+      <c r="R6" s="186" t="s">
         <v>22</v>
-      </c>
-      <c r="R6" s="186" t="s">
-        <v>23</v>
       </c>
       <c r="S6" s="259"/>
       <c r="T6" s="195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U6" s="196"/>
       <c r="V6" s="260" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W6" s="260"/>
       <c r="X6" s="260"/>
@@ -5987,7 +5984,7 @@
       <c r="J7" s="246"/>
       <c r="K7" s="247"/>
       <c r="L7" s="248" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="249"/>
       <c r="N7" s="249"/>
@@ -5997,11 +5994,11 @@
       <c r="R7" s="249"/>
       <c r="S7" s="261"/>
       <c r="T7" s="262" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U7" s="263"/>
       <c r="V7" s="264" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W7" s="265"/>
       <c r="X7" s="265"/>
@@ -6013,7 +6010,7 @@
       <c r="AD7" s="243"/>
       <c r="AE7" s="259"/>
       <c r="AI7" s="165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK7" s="165">
         <f>G8</f>
@@ -6022,10 +6019,10 @@
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:35">
       <c r="A8" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="182" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="182" t="s">
-        <v>31</v>
       </c>
       <c r="C8" s="183"/>
       <c r="D8" s="183"/>
@@ -6081,7 +6078,7 @@
       <c r="R9" s="186"/>
       <c r="S9" s="271"/>
       <c r="T9" s="272" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U9" s="273"/>
       <c r="V9" s="175"/>
@@ -6095,7 +6092,7 @@
       <c r="AD9" s="243"/>
       <c r="AE9" s="259"/>
       <c r="AI9" s="165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="1:35">
@@ -6119,7 +6116,7 @@
       <c r="R10" s="186"/>
       <c r="S10" s="271"/>
       <c r="T10" s="272" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U10" s="273"/>
       <c r="V10" s="197"/>
@@ -6133,7 +6130,7 @@
       <c r="AD10" s="243"/>
       <c r="AE10" s="259"/>
       <c r="AI10" s="165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:31">
@@ -6157,7 +6154,7 @@
       <c r="R11" s="188"/>
       <c r="S11" s="274"/>
       <c r="T11" s="275" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U11" s="276"/>
       <c r="V11" s="277"/>
@@ -6173,7 +6170,7 @@
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="1:35">
       <c r="A12" s="189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="190"/>
       <c r="C12" s="190"/>
@@ -6206,12 +6203,12 @@
       <c r="AD12" s="192"/>
       <c r="AE12" s="295"/>
       <c r="AI12" s="165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1" spans="1:35">
       <c r="A13" s="193" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="194"/>
       <c r="C13" s="194"/>
@@ -6244,26 +6241,26 @@
       <c r="AD13" s="194"/>
       <c r="AE13" s="296"/>
       <c r="AI13" s="165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="1:35">
       <c r="A14" s="195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="196"/>
       <c r="C14" s="196"/>
       <c r="D14" s="196"/>
       <c r="E14" s="196"/>
       <c r="F14" s="196" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="196"/>
       <c r="H14" s="196"/>
       <c r="I14" s="196"/>
       <c r="J14" s="196"/>
       <c r="K14" s="213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="214"/>
       <c r="M14" s="214"/>
@@ -6281,14 +6278,14 @@
       <c r="Y14" s="214"/>
       <c r="Z14" s="297"/>
       <c r="AA14" s="196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB14" s="196"/>
       <c r="AC14" s="196"/>
       <c r="AD14" s="196"/>
       <c r="AE14" s="298"/>
       <c r="AI14" s="165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:35">
@@ -6303,7 +6300,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="175">
         <v>2014</v>
@@ -6316,10 +6313,10 @@
         <v>9</v>
       </c>
       <c r="J15" s="197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="250" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" s="251"/>
       <c r="M15" s="251"/>
@@ -6342,7 +6339,7 @@
       <c r="AD15" s="173"/>
       <c r="AE15" s="238"/>
       <c r="AI15" s="165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:35">
@@ -6357,7 +6354,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="200">
         <v>2017</v>
@@ -6370,10 +6367,10 @@
         <v>3</v>
       </c>
       <c r="J16" s="197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" s="252" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L16" s="252"/>
       <c r="M16" s="252"/>
@@ -6396,7 +6393,7 @@
       <c r="AD16" s="197"/>
       <c r="AE16" s="293"/>
       <c r="AI16" s="165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:35">
@@ -6411,7 +6408,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="200">
         <v>2019</v>
@@ -6424,10 +6421,10 @@
         <v>3</v>
       </c>
       <c r="J17" s="197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="252" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="252"/>
       <c r="M17" s="252"/>
@@ -6450,19 +6447,19 @@
       <c r="AD17" s="197"/>
       <c r="AE17" s="293"/>
       <c r="AI17" s="165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="1:35">
       <c r="A18" s="201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="202"/>
       <c r="C18" s="202"/>
       <c r="D18" s="202"/>
       <c r="E18" s="203"/>
       <c r="F18" s="204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="205"/>
       <c r="H18" s="205"/>
@@ -6526,12 +6523,12 @@
       <c r="AD19" s="210"/>
       <c r="AE19" s="301"/>
       <c r="AI19" s="165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1" spans="1:35">
       <c r="A20" s="211" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="212"/>
       <c r="C20" s="212"/>
@@ -6564,19 +6561,19 @@
       <c r="AD20" s="212"/>
       <c r="AE20" s="302"/>
       <c r="AI20" s="165" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" s="164" customFormat="1" ht="16.5" customHeight="1" spans="1:35">
       <c r="A21" s="195" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="196"/>
       <c r="C21" s="196"/>
       <c r="D21" s="196"/>
       <c r="E21" s="196"/>
       <c r="F21" s="213" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="214"/>
       <c r="H21" s="214"/>
@@ -6604,7 +6601,7 @@
       <c r="AD21" s="214"/>
       <c r="AE21" s="258"/>
       <c r="AI21" s="165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" s="164" customFormat="1" ht="17.25" customHeight="1" spans="1:31">
@@ -6619,10 +6616,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="215"/>
       <c r="H22" s="215"/>
@@ -6662,10 +6659,10 @@
         <v>7</v>
       </c>
       <c r="E23" s="197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="215" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="215"/>
       <c r="H23" s="215"/>
@@ -6705,10 +6702,10 @@
         <v>8</v>
       </c>
       <c r="E24" s="197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="215" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="215"/>
       <c r="H24" s="215"/>
@@ -6748,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="E25" s="216" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="217" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="217"/>
       <c r="H25" s="217"/>
@@ -6779,12 +6776,12 @@
       <c r="AD25" s="217"/>
       <c r="AE25" s="304"/>
       <c r="AI25" s="165" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" s="164" customFormat="1" ht="17.25" customHeight="1" spans="1:35">
       <c r="A26" s="218" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="219"/>
       <c r="C26" s="219"/>
@@ -6817,7 +6814,7 @@
       <c r="AD26" s="205"/>
       <c r="AE26" s="300"/>
       <c r="AI26" s="165" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" ht="16.5" customHeight="1" spans="1:35">
@@ -6853,12 +6850,12 @@
       <c r="AD27" s="210"/>
       <c r="AE27" s="301"/>
       <c r="AI27" s="165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1" spans="1:31">
       <c r="A28" s="193" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="194"/>
       <c r="C28" s="194"/>
@@ -6893,21 +6890,21 @@
     </row>
     <row r="29" ht="16.5" customHeight="1" spans="1:35">
       <c r="A29" s="195" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="196"/>
       <c r="C29" s="196"/>
       <c r="D29" s="196"/>
       <c r="E29" s="196"/>
       <c r="F29" s="196" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="196"/>
       <c r="H29" s="196"/>
       <c r="I29" s="196"/>
       <c r="J29" s="196"/>
       <c r="K29" s="213" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L29" s="214"/>
       <c r="M29" s="214"/>
@@ -6927,12 +6924,12 @@
       <c r="AA29" s="214"/>
       <c r="AB29" s="297"/>
       <c r="AC29" s="196" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD29" s="196"/>
       <c r="AE29" s="298"/>
       <c r="AI29" s="165" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" ht="17.25" customHeight="1" spans="1:38">
@@ -6947,7 +6944,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="197">
         <v>2019</v>
@@ -6960,10 +6957,10 @@
         <v>7</v>
       </c>
       <c r="J30" s="197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" s="215" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L30" s="215"/>
       <c r="M30" s="215"/>
@@ -6983,7 +6980,7 @@
       <c r="AA30" s="215"/>
       <c r="AB30" s="215"/>
       <c r="AC30" s="175" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD30" s="173"/>
       <c r="AE30" s="238"/>
@@ -7004,7 +7001,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" s="197">
         <v>2020</v>
@@ -7017,10 +7014,10 @@
         <v>12</v>
       </c>
       <c r="J31" s="197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" s="215" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L31" s="215"/>
       <c r="M31" s="215"/>
@@ -7040,7 +7037,7 @@
       <c r="AA31" s="215"/>
       <c r="AB31" s="215"/>
       <c r="AC31" s="175" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD31" s="173"/>
       <c r="AE31" s="238"/>
@@ -7061,17 +7058,17 @@
         <v>1</v>
       </c>
       <c r="E32" s="225" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" s="226" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" s="227"/>
       <c r="H32" s="227"/>
       <c r="I32" s="227"/>
       <c r="J32" s="253"/>
       <c r="K32" s="254" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L32" s="254"/>
       <c r="M32" s="254"/>
@@ -7091,7 +7088,7 @@
       <c r="AA32" s="254"/>
       <c r="AB32" s="254"/>
       <c r="AC32" s="225" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD32" s="225"/>
       <c r="AE32" s="305"/>
@@ -7102,7 +7099,7 @@
     </row>
     <row r="33" ht="17.25" customHeight="1" spans="1:38">
       <c r="A33" s="218" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="219"/>
       <c r="C33" s="219"/>
@@ -7178,7 +7175,7 @@
     </row>
     <row r="35" ht="17.25" customHeight="1" spans="1:38">
       <c r="A35" s="232" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="233"/>
       <c r="C35" s="233"/>
@@ -7193,7 +7190,7 @@
       <c r="L35" s="233"/>
       <c r="M35" s="233"/>
       <c r="N35" s="255" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O35" s="256"/>
       <c r="P35" s="256"/>
@@ -7219,7 +7216,7 @@
     </row>
     <row r="36" ht="17.25" customHeight="1" spans="1:38">
       <c r="A36" s="234" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="234"/>
       <c r="C36" s="234"/>
@@ -7234,7 +7231,7 @@
       <c r="L36" s="234"/>
       <c r="M36" s="234"/>
       <c r="N36" s="257" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O36" s="234"/>
       <c r="P36" s="234"/>
@@ -7938,11 +7935,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="配偶者の有無" prompt="選択してください" sqref="V6:Y6">
+      <formula1>$AI$8:$AI$10</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC32:AE32">
       <formula1>"[▼選択],正社員,役員,契約社員,派遣社員,嘱託・委託,アルバイト・パート,その他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="配偶者の有無" prompt="選択してください" sqref="V6:Y6">
-      <formula1>$AI$8:$AI$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:K7">
       <formula1>$AI$5:$AI$7</formula1>
@@ -7965,7 +7962,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.44166666666667" defaultRowHeight="19.5"/>
@@ -7991,7 +7988,7 @@
     <row r="1" ht="12.75" customHeight="1"/>
     <row r="2" ht="77.25" customHeight="1" spans="6:11">
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -8001,16 +7998,16 @@
     </row>
     <row r="3" ht="21" customHeight="1" spans="2:19">
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="112"/>
@@ -8027,16 +8024,16 @@
     </row>
     <row r="4" ht="21" customHeight="1" spans="2:19">
       <c r="B4" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="114" t="s">
@@ -8055,16 +8052,16 @@
     </row>
     <row r="5" ht="21" customHeight="1" spans="2:19">
       <c r="B5" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="116">
@@ -8083,18 +8080,18 @@
     </row>
     <row r="6" ht="21" customHeight="1" spans="2:19">
       <c r="B6" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
       <c r="G6" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="118" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6" s="119"/>
       <c r="K6" s="119"/>
@@ -8109,20 +8106,20 @@
     </row>
     <row r="7" ht="41.85" customHeight="1" spans="2:19">
       <c r="B7" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
       <c r="G7" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="121"/>
       <c r="K7" s="121"/>
@@ -8156,11 +8153,11 @@
     </row>
     <row r="9" ht="28.5" customHeight="1" spans="2:18">
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -8179,11 +8176,11 @@
     </row>
     <row r="10" ht="28.5" customHeight="1" spans="2:18">
       <c r="B10" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -8202,11 +8199,11 @@
     </row>
     <row r="11" ht="28.5" customHeight="1" spans="2:18">
       <c r="B11" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
@@ -8244,31 +8241,31 @@
     </row>
     <row r="13" ht="19.35" customHeight="1" spans="2:18">
       <c r="B13" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="H13" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="I13" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="J13" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="K13" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="L13" s="122" t="s">
         <v>108</v>
-      </c>
-      <c r="L13" s="122" t="s">
-        <v>109</v>
       </c>
       <c r="M13" s="122"/>
       <c r="N13" s="122"/>
@@ -8289,25 +8286,25 @@
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
       <c r="L14" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="123" t="s">
+      <c r="N14" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="N14" s="123" t="s">
+      <c r="O14" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="O14" s="123" t="s">
+      <c r="P14" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="123" t="s">
+      <c r="Q14" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="123" t="s">
+      <c r="R14" s="151" t="s">
         <v>115</v>
-      </c>
-      <c r="R14" s="151" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="23.25" customHeight="1" spans="1:23">
@@ -8316,43 +8313,43 @@
         <v>1</v>
       </c>
       <c r="C15" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="E15" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="F15" s="50" t="s">
         <v>119</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>120</v>
       </c>
       <c r="G15" s="51"/>
       <c r="H15" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="J15" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="J15" s="124" t="s">
+      <c r="K15" s="52" t="s">
         <v>123</v>
-      </c>
-      <c r="K15" s="52" t="s">
-        <v>124</v>
       </c>
       <c r="L15" s="125"/>
       <c r="M15" s="125"/>
       <c r="N15" s="125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O15" s="125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P15" s="125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q15" s="125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R15" s="152"/>
       <c r="S15" s="46"/>
@@ -8368,10 +8365,10 @@
       <c r="D16" s="55"/>
       <c r="E16" s="56"/>
       <c r="F16" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="58" t="s">
         <v>126</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>127</v>
       </c>
       <c r="H16" s="59"/>
       <c r="I16" s="126"/>
@@ -8394,7 +8391,7 @@
       <c r="A17" s="46"/>
       <c r="B17" s="60"/>
       <c r="C17" s="61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="62"/>
       <c r="E17" s="63"/>
@@ -8423,41 +8420,41 @@
         <v>2</v>
       </c>
       <c r="C18" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>130</v>
-      </c>
       <c r="F18" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G18" s="70"/>
       <c r="H18" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="J18" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="J18" s="128" t="s">
-        <v>133</v>
-      </c>
       <c r="K18" s="71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="59"/>
       <c r="N18" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O18" s="59"/>
       <c r="P18" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R18" s="154"/>
       <c r="S18" s="46"/>
@@ -8473,10 +8470,10 @@
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="58" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
@@ -8499,7 +8496,7 @@
       <c r="A20" s="46"/>
       <c r="B20" s="60"/>
       <c r="C20" s="74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="75"/>
       <c r="E20" s="76"/>
@@ -8529,43 +8526,43 @@
         <v>3</v>
       </c>
       <c r="C21" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="81" t="s">
-        <v>138</v>
-      </c>
       <c r="F21" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G21" s="70"/>
       <c r="H21" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="J21" s="130" t="s">
-        <v>140</v>
-      </c>
       <c r="K21" s="82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L21" s="131"/>
       <c r="M21" s="131"/>
       <c r="N21" s="131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O21" s="131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P21" s="131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R21" s="157"/>
       <c r="S21" s="46"/>
@@ -8581,10 +8578,10 @@
       <c r="D22" s="55"/>
       <c r="E22" s="56"/>
       <c r="F22" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H22" s="59"/>
       <c r="I22" s="126"/>
@@ -8607,7 +8604,7 @@
       <c r="A23" s="46"/>
       <c r="B23" s="60"/>
       <c r="C23" s="74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="84"/>
       <c r="E23" s="85"/>
@@ -8637,43 +8634,43 @@
         <v>4</v>
       </c>
       <c r="C24" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="81" t="s">
-        <v>144</v>
-      </c>
       <c r="F24" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24" s="70"/>
       <c r="H24" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="82" t="s">
+      <c r="J24" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="130" t="s">
+      <c r="K24" s="82" t="s">
         <v>147</v>
-      </c>
-      <c r="K24" s="82" t="s">
-        <v>148</v>
       </c>
       <c r="L24" s="131"/>
       <c r="M24" s="131"/>
       <c r="N24" s="131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O24" s="131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P24" s="131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q24" s="131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R24" s="157"/>
       <c r="S24" s="46"/>
@@ -8689,10 +8686,10 @@
       <c r="D25" s="55"/>
       <c r="E25" s="56"/>
       <c r="F25" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="58" t="s">
         <v>149</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>150</v>
       </c>
       <c r="H25" s="59"/>
       <c r="I25" s="126"/>
@@ -8715,7 +8712,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="86"/>
       <c r="C26" s="87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" s="62"/>
       <c r="E26" s="63"/>
@@ -8745,34 +8742,34 @@
         <v>5</v>
       </c>
       <c r="C27" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="91" t="s">
-        <v>153</v>
-      </c>
       <c r="F27" s="92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G27" s="93"/>
       <c r="H27" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="I27" s="133" t="s">
+      <c r="J27" s="134" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" s="94" t="s">
         <v>155</v>
-      </c>
-      <c r="J27" s="134" t="s">
-        <v>147</v>
-      </c>
-      <c r="K27" s="94" t="s">
-        <v>156</v>
       </c>
       <c r="L27" s="135"/>
       <c r="M27" s="135"/>
       <c r="N27" s="135" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O27" s="135"/>
       <c r="P27" s="135"/>
@@ -8791,10 +8788,10 @@
       <c r="D28" s="55"/>
       <c r="E28" s="56"/>
       <c r="F28" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="58" t="s">
         <v>157</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>158</v>
       </c>
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
@@ -8817,7 +8814,7 @@
       <c r="A29" s="46"/>
       <c r="B29" s="96"/>
       <c r="C29" s="74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="84"/>
       <c r="E29" s="85"/>
@@ -8847,35 +8844,35 @@
         <v>6</v>
       </c>
       <c r="C30" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="81" t="s">
+      <c r="F30" s="69" t="s">
         <v>160</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>161</v>
       </c>
       <c r="G30" s="70"/>
       <c r="H30" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="136" t="s">
-        <v>155</v>
-      </c>
       <c r="J30" s="130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K30" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L30" s="131"/>
       <c r="M30" s="131"/>
       <c r="N30" s="131"/>
       <c r="O30" s="81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P30" s="131"/>
       <c r="Q30" s="131"/>
@@ -8893,10 +8890,10 @@
       <c r="D31" s="55"/>
       <c r="E31" s="56"/>
       <c r="F31" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="58" t="s">
         <v>163</v>
-      </c>
-      <c r="G31" s="58" t="s">
-        <v>164</v>
       </c>
       <c r="H31" s="59"/>
       <c r="I31" s="59"/>
@@ -8919,7 +8916,7 @@
       <c r="A32" s="46"/>
       <c r="B32" s="96"/>
       <c r="C32" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" s="84"/>
       <c r="E32" s="85"/>
@@ -8949,35 +8946,35 @@
         <v>7</v>
       </c>
       <c r="C33" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="81" t="s">
+      <c r="F33" s="69" t="s">
         <v>166</v>
-      </c>
-      <c r="F33" s="69" t="s">
-        <v>167</v>
       </c>
       <c r="G33" s="98"/>
       <c r="H33" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="136" t="s">
+        <v>154</v>
+      </c>
+      <c r="J33" s="130" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" s="82" t="s">
         <v>168</v>
-      </c>
-      <c r="I33" s="136" t="s">
-        <v>155</v>
-      </c>
-      <c r="J33" s="130" t="s">
-        <v>147</v>
-      </c>
-      <c r="K33" s="82" t="s">
-        <v>169</v>
       </c>
       <c r="L33" s="131"/>
       <c r="M33" s="131"/>
       <c r="N33" s="131"/>
       <c r="O33" s="81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P33" s="131"/>
       <c r="Q33" s="131"/>
@@ -8995,10 +8992,10 @@
       <c r="D34" s="55"/>
       <c r="E34" s="56"/>
       <c r="F34" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="58" t="s">
         <v>170</v>
-      </c>
-      <c r="G34" s="58" t="s">
-        <v>171</v>
       </c>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -9021,7 +9018,7 @@
       <c r="A35" s="46"/>
       <c r="B35" s="95"/>
       <c r="C35" s="99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D35" s="100"/>
       <c r="E35" s="101"/>
@@ -9054,36 +9051,36 @@
         <v>43475</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="92" t="s">
         <v>172</v>
-      </c>
-      <c r="F36" s="92" t="s">
-        <v>173</v>
       </c>
       <c r="G36" s="104"/>
       <c r="H36" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="I36" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="133" t="s">
+      <c r="J36" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="K36" s="94" t="s">
         <v>155</v>
-      </c>
-      <c r="J36" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="K36" s="94" t="s">
-        <v>156</v>
       </c>
       <c r="L36" s="135"/>
       <c r="M36" s="91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N36" s="91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O36" s="91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P36" s="135"/>
       <c r="Q36" s="135"/>
@@ -9091,7 +9088,7 @@
       <c r="S36" s="46"/>
       <c r="T36" s="153"/>
       <c r="U36" s="162" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V36" s="153"/>
       <c r="W36" s="153"/>
@@ -9103,10 +9100,10 @@
       <c r="D37" s="73"/>
       <c r="E37" s="73"/>
       <c r="F37" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="58" t="s">
         <v>175</v>
-      </c>
-      <c r="G37" s="58" t="s">
-        <v>176</v>
       </c>
       <c r="H37" s="71"/>
       <c r="I37" s="137"/>
@@ -9129,7 +9126,7 @@
       <c r="A38" s="46"/>
       <c r="B38" s="105"/>
       <c r="C38" s="106" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" s="107"/>
       <c r="E38" s="108"/>
@@ -9337,18 +9334,18 @@
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="D4:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="いつから稼働可能か" prompt="をご記載ください。&#10;&#10;(例)「即日～」&#10;&#10;　  「○月△日～」" sqref="D6:F6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「路線名　駅名」" prompt="をご記載ください。&#10;&#10;(例)○○線 △△駅" sqref="D5:F5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I4:R4">
+      <formula1>"男性,女性,　　　　"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「お持ちの資格」 or 「無し」" prompt="をご記載ください。&#10;&#10;ない場合は「無し」とご記載ください。" sqref="D7:F7"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L15:R38">
       <formula1>"●"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I4:R4">
-      <formula1>"男性,女性,　　　　"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="いつから稼働可能か" prompt="をご記載ください。&#10;&#10;(例)「即日～」&#10;&#10;　  「○月△日～」" sqref="D6:F6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「路線名　駅名」" prompt="をご記載ください。&#10;&#10;(例)○○線 △△駅" sqref="D5:F5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「お持ちの資格」 or 「無し」" prompt="をご記載ください。&#10;&#10;ない場合は「無し」とご記載ください。" sqref="D7:F7"/>
   </dataValidations>
   <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.984251968503937" bottom="0.984251968503937" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="26" max="17" man="1"/>

--- a/public/pdf/mycv.xlsx
+++ b/public/pdf/mycv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11920" tabRatio="559"/>
+    <workbookView windowWidth="28800" windowHeight="11880" tabRatio="559" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="①履歴書" sheetId="5" r:id="rId1"/>
@@ -854,7 +854,7 @@
 （本人含む）</t>
   </si>
   <si>
-    <t>9ヶ月</t>
+    <t>5ヶ月</t>
   </si>
   <si>
     <t>2022年10月</t>
@@ -1487,10 +1487,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="&quot;&quot;#&quot;歳&quot;"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="179" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1629,11 +1629,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1645,23 +1672,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1675,17 +1694,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1693,13 +1703,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1714,6 +1717,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1722,15 +1733,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <charset val="128"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1742,29 +1764,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1803,13 +1803,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,7 +1827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,7 +1845,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1851,103 +1965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1959,25 +1977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4222,6 +4222,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4231,62 +4287,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4300,144 +4300,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="181" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="181" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="180" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="179" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="179" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="178" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="177" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="176" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="176" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="180" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="175" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="178" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="177" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="177" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="176" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="175" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="175" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="175" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="174" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="174" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5922,7 +5922,7 @@
   </sheetPr>
   <dimension ref="A1:AS56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScalePageLayoutView="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScalePageLayoutView="85" zoomScaleNormal="100" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8193,8 +8193,8 @@
   </sheetPr>
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.44117647058824" defaultRowHeight="20.4"/>
@@ -9697,12 +9697,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L15:R15 L16:R16 L17:R17 L29:R29 L18:R28 L30:R41">
       <formula1>"●"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「お持ちの資格」 or 「無し」" prompt="をご記載ください。&#10;&#10;ない場合は「無し」とご記載ください。" sqref="D7:F7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="いつから稼働可能か" prompt="をご記載ください。&#10;&#10;(例)「即日～」&#10;&#10;　  「○月△日～」" sqref="D6:F6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「路線名　駅名」" prompt="をご記載ください。&#10;&#10;(例)○○線 △△駅" sqref="D5:F5"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I4:R4">
       <formula1>"男性,女性,　　　　"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「お持ちの資格」 or 「無し」" prompt="をご記載ください。&#10;&#10;ない場合は「無し」とご記載ください。" sqref="D7:F7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="いつから稼働可能か" prompt="をご記載ください。&#10;&#10;(例)「即日～」&#10;&#10;　  「○月△日～」" sqref="D6:F6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「路線名　駅名」" prompt="をご記載ください。&#10;&#10;(例)○○線 △△駅" sqref="D5:F5"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="D4:F4"/>
   </dataValidations>
   <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.984251968503937" bottom="0.984251968503937" header="0.31496062992126" footer="0.31496062992126"/>

--- a/public/pdf/mycv.xlsx
+++ b/public/pdf/mycv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11880" tabRatio="559" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11940" tabRatio="559"/>
   </bookViews>
   <sheets>
     <sheet name="①履歴書" sheetId="5" r:id="rId1"/>
@@ -1623,13 +1623,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1644,16 +1637,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -1665,7 +1654,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1687,7 +1691,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1702,7 +1706,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1716,17 +1743,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1740,33 +1763,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1815,7 +1815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1833,25 +1833,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,7 +1875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,19 +1887,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1905,7 +1923,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,43 +1953,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1965,19 +1977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4217,6 +4217,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4248,21 +4257,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4278,11 +4272,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4300,147 +4300,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="181" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="181" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="179" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="180" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="178" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="177" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="177" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="175" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="179" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="178" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="176" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="177" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="176" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="176" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="180" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="175" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="176" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="175" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="174" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="174" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5922,7 +5922,7 @@
   </sheetPr>
   <dimension ref="A1:AS56"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScalePageLayoutView="85" zoomScaleNormal="100" topLeftCell="A23" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScalePageLayoutView="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8179,7 +8179,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.196850393700787" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8193,8 +8193,8 @@
   </sheetPr>
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.44117647058824" defaultRowHeight="20.4"/>
@@ -9694,12 +9694,12 @@
     <mergeCell ref="B13:E14"/>
   </mergeCells>
   <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「お持ちの資格」 or 「無し」" prompt="をご記載ください。&#10;&#10;ない場合は「無し」とご記載ください。" sqref="D7:F7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="いつから稼働可能か" prompt="をご記載ください。&#10;&#10;(例)「即日～」&#10;&#10;　  「○月△日～」" sqref="D6:F6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「路線名　駅名」" prompt="をご記載ください。&#10;&#10;(例)○○線 △△駅" sqref="D5:F5"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L15:R15 L16:R16 L17:R17 L29:R29 L18:R28 L30:R41">
       <formula1>"●"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「お持ちの資格」 or 「無し」" prompt="をご記載ください。&#10;&#10;ない場合は「無し」とご記載ください。" sqref="D7:F7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="いつから稼働可能か" prompt="をご記載ください。&#10;&#10;(例)「即日～」&#10;&#10;　  「○月△日～」" sqref="D6:F6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="「路線名　駅名」" prompt="をご記載ください。&#10;&#10;(例)○○線 △△駅" sqref="D5:F5"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I4:R4">
       <formula1>"男性,女性,　　　　"</formula1>
     </dataValidation>
